--- a/template.xlsx
+++ b/template.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="可附圖檔範本 -買賣" sheetId="4" r:id="rId1"/>
     <sheet name="可附圖檔範本-維修 ( 附簽章 )" sheetId="7" r:id="rId2"/>
     <sheet name="可附圖檔範本-買賣 ( 附簽章 ) " sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>數量</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -128,25 +128,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u val="double"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>維修報價單</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>維修產品</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -204,11 +185,49 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">     地址：台南市新營區濟安街46號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">德龍企業社    </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號 ：36872015     手機：0915626927</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>報價日期：     年    月    日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客戶名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>維修報價單</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -901,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1152,6 +1171,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1166,6 +1188,42 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1275,15 +1333,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15239</xdr:colOff>
+      <xdr:colOff>24764</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1639316</xdr:colOff>
+      <xdr:colOff>1648841</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1300,8 +1358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312419" y="15240"/>
-          <a:ext cx="1624077" cy="1059180"/>
+          <a:off x="348614" y="28575"/>
+          <a:ext cx="1624077" cy="1074420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,15 +1374,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>163830</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>913958</xdr:colOff>
+      <xdr:colOff>628208</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1341,8 +1399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5059680" y="45720"/>
-          <a:ext cx="1470218" cy="1005840"/>
+          <a:off x="5212080" y="74295"/>
+          <a:ext cx="1559753" cy="1021080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,80 +1409,79 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>868679</xdr:colOff>
+      <xdr:colOff>897254</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>50367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>683209</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>894290</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="群組 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1165859" y="6573087"/>
-          <a:ext cx="845821" cy="843923"/>
+          <a:off x="1221104" y="6641667"/>
+          <a:ext cx="1671905" cy="843923"/>
+          <a:chOff x="1192529" y="6641667"/>
+          <a:chExt cx="1671905" cy="843923"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>289560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>654634</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>822274</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2141220" y="6812280"/>
-          <a:ext cx="532714" cy="532714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="圖片 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1192529" y="6641667"/>
+            <a:ext cx="845821" cy="843923"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="圖片 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2331720" y="6880860"/>
+            <a:ext cx="532714" cy="532714"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1862,17 +1919,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="28.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
@@ -1880,35 +1937,35 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C4" s="78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>7</v>
       </c>
@@ -1916,18 +1973,18 @@
       <c r="C6" s="80"/>
       <c r="D6" s="81"/>
       <c r="E6" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>0</v>
@@ -1950,7 +2007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>1</v>
       </c>
@@ -1964,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>2</v>
       </c>
@@ -1978,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>3</v>
       </c>
@@ -1992,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>4</v>
       </c>
@@ -2007,7 +2064,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>5</v>
       </c>
@@ -2022,7 +2079,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>6</v>
       </c>
@@ -2036,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>7</v>
       </c>
@@ -2050,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>8</v>
       </c>
@@ -2064,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>9</v>
       </c>
@@ -2078,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>10</v>
       </c>
@@ -2092,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="53"/>
       <c r="C19" s="19"/>
@@ -2101,7 +2158,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="54"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="12" t="s">
         <v>12</v>
@@ -2112,7 +2169,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="54"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="53"/>
       <c r="C21" s="19"/>
@@ -2121,7 +2178,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="54"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="C22" s="19"/>
       <c r="D22" s="12"/>
@@ -2129,7 +2186,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="C23" s="19"/>
       <c r="D23" s="12"/>
@@ -2137,7 +2194,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="12"/>
       <c r="C24" s="19"/>
@@ -2146,7 +2203,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="12"/>
       <c r="C25" s="19"/>
@@ -2156,7 +2213,7 @@
       <c r="G25" s="30"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
       <c r="C26" s="45"/>
@@ -2165,7 +2222,7 @@
       <c r="F26" s="46"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>18</v>
       </c>
@@ -2185,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>15</v>
       </c>
@@ -2199,7 +2256,7 @@
       </c>
       <c r="G28" s="83"/>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="35" t="s">
         <v>13</v>
@@ -2208,7 +2265,7 @@
       <c r="E29" s="41"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>16</v>
       </c>
@@ -2223,15 +2280,15 @@
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
     </row>
   </sheetData>
@@ -2255,86 +2312,86 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="28.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="94"/>
+      <c r="C1" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="95"/>
+      <c r="C2" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="99"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="95"/>
+      <c r="C3" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="99"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="78" t="s">
-        <v>20</v>
+      <c r="B4" s="95"/>
+      <c r="C4" s="84" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
-        <v>7</v>
+      <c r="F5" s="95"/>
+      <c r="G5" s="99"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
       <c r="D6" s="81"/>
-      <c r="E6" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="72"/>
+      <c r="F6" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2343,12 +2400,12 @@
       <c r="F7" s="74"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>11</v>
@@ -2366,10 +2423,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
       <c r="B9" s="22"/>
       <c r="C9" s="24"/>
       <c r="D9" s="22"/>
@@ -2380,10 +2435,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>2</v>
-      </c>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
       <c r="B10" s="12"/>
       <c r="C10" s="19"/>
       <c r="D10" s="12"/>
@@ -2394,10 +2447,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
-        <v>3</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
       <c r="B11" s="76"/>
       <c r="C11" s="19"/>
       <c r="D11" s="12"/>
@@ -2408,10 +2459,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
       <c r="B12" s="12"/>
       <c r="C12" s="19"/>
       <c r="D12" s="12"/>
@@ -2423,10 +2472,8 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
       <c r="B13" s="12"/>
       <c r="C13" s="19"/>
       <c r="D13" s="12"/>
@@ -2438,10 +2485,8 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
-        <v>6</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
       <c r="B14" s="12"/>
       <c r="C14" s="19"/>
       <c r="D14" s="12"/>
@@ -2452,10 +2497,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>7</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
       <c r="B15" s="12"/>
       <c r="C15" s="19"/>
       <c r="D15" s="12"/>
@@ -2466,10 +2509,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
-        <v>8</v>
-      </c>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
       <c r="B16" s="12"/>
       <c r="C16" s="19"/>
       <c r="D16" s="12"/>
@@ -2480,10 +2521,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
-        <v>9</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
       <c r="B17" s="12"/>
       <c r="C17" s="19"/>
       <c r="D17" s="12"/>
@@ -2494,10 +2533,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
-        <v>10</v>
-      </c>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
       <c r="B18" s="53"/>
       <c r="C18" s="19"/>
       <c r="D18" s="12"/>
@@ -2508,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="53"/>
       <c r="C19" s="19"/>
@@ -2517,18 +2554,16 @@
       <c r="F19" s="13"/>
       <c r="G19" s="54"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
-      <c r="B20" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="19"/>
       <c r="D20" s="12"/>
       <c r="E20" s="19"/>
       <c r="F20" s="13"/>
       <c r="G20" s="54"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="53"/>
       <c r="C21" s="19"/>
@@ -2537,7 +2572,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="54"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="53"/>
       <c r="C22" s="19"/>
@@ -2546,7 +2581,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="54"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="7"/>
       <c r="C23" s="19"/>
@@ -2555,8 +2590,8 @@
       <c r="F23" s="13"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
       <c r="B24" s="12"/>
       <c r="C24" s="19"/>
       <c r="D24" s="12"/>
@@ -2565,8 +2600,8 @@
       <c r="G24" s="30"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45"/>
       <c r="D25" s="44"/>
@@ -2574,27 +2609,21 @@
       <c r="F25" s="46"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
-      <c r="D26" s="51">
-        <f>SUM(D9:D25)</f>
-        <v>0</v>
-      </c>
+      <c r="D26" s="51"/>
       <c r="E26" s="51"/>
-      <c r="F26" s="51">
-        <f>SUM(F9:F25)</f>
-        <v>0</v>
-      </c>
+      <c r="F26" s="51"/>
       <c r="G26" s="52">
         <f>SUM(G9:G25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -2607,7 +2636,7 @@
       <c r="F27" s="55"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="58" t="s">
         <v>13</v>
@@ -2618,7 +2647,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
         <v>16</v>
       </c>
@@ -2633,46 +2662,52 @@
       </c>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:G30"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="F1:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2693,17 +2728,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="28.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
       <c r="B1" s="67"/>
       <c r="C1" s="68" t="s">
@@ -2714,7 +2749,7 @@
       <c r="F1" s="69"/>
       <c r="G1" s="70"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="7"/>
       <c r="C2" s="71" t="s">
@@ -2725,7 +2760,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="7"/>
       <c r="C3" s="71" t="s">
@@ -2736,18 +2771,18 @@
       <c r="F3" s="7"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="7"/>
       <c r="C4" s="78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
       <c r="F4" s="3"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
@@ -2756,20 +2791,20 @@
       <c r="F5" s="7"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
       <c r="D6" s="81"/>
       <c r="E6" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2778,7 +2813,7 @@
       <c r="F7" s="74"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>8</v>
       </c>
@@ -2786,7 +2821,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>0</v>
@@ -2801,7 +2836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>1</v>
       </c>
@@ -2815,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>2</v>
       </c>
@@ -2829,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>3</v>
       </c>
@@ -2843,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>4</v>
       </c>
@@ -2858,7 +2893,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>5</v>
       </c>
@@ -2873,7 +2908,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>6</v>
       </c>
@@ -2887,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>7</v>
       </c>
@@ -2901,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>8</v>
       </c>
@@ -2915,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>9</v>
       </c>
@@ -2929,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>10</v>
       </c>
@@ -2943,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="53"/>
       <c r="C19" s="19"/>
@@ -2952,7 +2987,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="54"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="12" t="s">
         <v>12</v>
@@ -2963,7 +2998,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="54"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="53"/>
       <c r="C21" s="19"/>
@@ -2972,7 +3007,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="54"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="53"/>
       <c r="C22" s="19"/>
@@ -2981,7 +3016,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="54"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="7"/>
       <c r="C23" s="19"/>
@@ -2990,7 +3025,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="12"/>
       <c r="C24" s="19"/>
@@ -3000,7 +3035,7 @@
       <c r="G24" s="30"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
       <c r="C25" s="45"/>
@@ -3009,7 +3044,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>18</v>
       </c>
@@ -3029,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>15</v>
       </c>
@@ -3042,7 +3077,7 @@
       <c r="F27" s="55"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="58" t="s">
         <v>13</v>
@@ -3053,7 +3088,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
         <v>16</v>
       </c>
@@ -3068,37 +3103,37 @@
       </c>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="77"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="89"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1417,71 +1417,72 @@
       <xdr:rowOff>50367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>894290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221104" y="6641667"/>
+          <a:ext cx="845821" cy="843923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>683209</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>894290</xdr:rowOff>
+      <xdr:rowOff>822274</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="群組 5"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1221104" y="6641667"/>
-          <a:ext cx="1671905" cy="843923"/>
-          <a:chOff x="1192529" y="6641667"/>
-          <a:chExt cx="1671905" cy="843923"/>
+          <a:off x="2360295" y="6880860"/>
+          <a:ext cx="532714" cy="532714"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="圖片 3"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1192529" y="6641667"/>
-            <a:ext cx="845821" cy="843923"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="圖片 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2331720" y="6880860"/>
-            <a:ext cx="532714" cy="532714"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2311,7 +2312,7 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
